--- a/products.xlsx
+++ b/products.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -480,48 +479,4 @@
     <ignoredError numberStoredAsText="1" sqref="A1:B9"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>code &amp; color</v>
-      </c>
-      <c r="B1" t="str">
-        <v>size</v>
-      </c>
-      <c r="C1" t="str">
-        <v>batch1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>8225 red</v>
-      </c>
-      <c r="B2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C4"/>
-  </ignoredErrors>
-</worksheet>
 </file>